--- a/data/Interface.xlsx
+++ b/data/Interface.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13188"/>
+    <workbookView windowWidth="30720" windowHeight="13176"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="46">
   <si>
     <t>ID</t>
   </si>
@@ -65,13 +65,10 @@
     <t>login_001</t>
   </si>
   <si>
-    <t>登录</t>
-  </si>
-  <si>
     <t>搜索</t>
   </si>
   <si>
-    <t>http://laravel-shop.ptdmeta.cn/api/v1/search/goods</t>
+    <t>https://laravel-shop.ptdmeta.cn/api/v1/search/goods</t>
   </si>
   <si>
     <t>请求参数为空</t>
@@ -80,45 +77,49 @@
     <t>post</t>
   </si>
   <si>
-    <t>1.Headers
-2.body</t>
-  </si>
-  <si>
-    <t>data={keywords: '手机',
-category_id :'',
-min_price:'',
-max_price:'',
-sort_type:'',
-page:'1',
-number:'10'}</t>
-  </si>
-  <si>
-    <t>1.登录失败，参数不正确
-2.状态码为400</t>
+    <t>1.Headers</t>
+  </si>
+  <si>
+    <t>{'keywords':'手机',
+'category_id':'1',
+'min_price':'',
+'max_price':'',
+'sort_type':'',
+'page':'1',
+'number':'10'}</t>
+  </si>
+  <si>
+    <t>1.状态码为200</t>
   </si>
   <si>
     <t>login_002</t>
   </si>
   <si>
-    <t>注册</t>
-  </si>
-  <si>
-    <t>http://laravel-shop.ptdmeta.cn/api/v1/category</t>
+    <t>发送验证码</t>
+  </si>
+  <si>
+    <t>登录验证码</t>
+  </si>
+  <si>
+    <t>https://laravel-shop.ptdmeta.cn/api/v1/sms-action</t>
   </si>
   <si>
     <t>手机号为空</t>
   </si>
   <si>
-    <t>data={"mobile":"","code":888889}</t>
+    <t>{"phone": "", "action": "login"}</t>
+  </si>
+  <si>
+    <t>1.状态码为400</t>
   </si>
   <si>
     <t>login_003</t>
   </si>
   <si>
-    <t>验证码为空</t>
-  </si>
-  <si>
-    <t>data={"mobile":"18513006400","code":}</t>
+    <t>操作类型为空</t>
+  </si>
+  <si>
+    <t>{"phone": "18888881888", "action": ""}</t>
   </si>
   <si>
     <t>login_004</t>
@@ -127,38 +128,49 @@
     <t>手机号不符合规则</t>
   </si>
   <si>
-    <t>data={"mobile":"1851300643","code":888889}</t>
+    <t>{"phone": "1888888188", "action": "login"}</t>
   </si>
   <si>
     <t>login_005</t>
   </si>
   <si>
-    <t>验证码不符合规则</t>
-  </si>
-  <si>
-    <t>data={"mobile":"1851300643","code":888sa889}</t>
+    <t>操作类型不符合规则</t>
+  </si>
+  <si>
+    <t>{"phone": "18888881888", "action": "logi"}</t>
   </si>
   <si>
     <t>login_006</t>
   </si>
   <si>
-    <t>验证码错误</t>
-  </si>
-  <si>
-    <t>data={"mobile":"1851300643","code":88889}</t>
+    <t>短信发送成功</t>
+  </si>
+  <si>
+    <t>{"phone": "18888881888", "action": "login"}</t>
   </si>
   <si>
     <t>login_007</t>
   </si>
   <si>
-    <t>登录成功</t>
-  </si>
-  <si>
-    <t>data={"mobile":"18600000000","code":888888}</t>
-  </si>
-  <si>
-    <t>"code": 200,
-"message": "success"</t>
+    <t>注册验证码</t>
+  </si>
+  <si>
+    <t>login_008</t>
+  </si>
+  <si>
+    <t>login_009</t>
+  </si>
+  <si>
+    <t>{"phone": "1888888189", "action": "login"}</t>
+  </si>
+  <si>
+    <t>login_010</t>
+  </si>
+  <si>
+    <t>login_011</t>
+  </si>
+  <si>
+    <t>{"phone": "18888881888", "action": "register"}</t>
   </si>
 </sst>
 </file>
@@ -1357,13 +1369,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.8" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="13.8"/>
   <cols>
     <col min="4" max="4" width="48.3" customWidth="1"/>
     <col min="5" max="5" width="17.3" customWidth="1"/>
@@ -1415,35 +1427,35 @@
         <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>19</v>
       </c>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
     </row>
-    <row r="3" ht="41.4" spans="1:11">
+    <row r="3" ht="27.6" spans="1:11">
       <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>21</v>
@@ -1455,26 +1467,26 @@
         <v>23</v>
       </c>
       <c r="F3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>24</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
     </row>
-    <row r="4" ht="27.6" spans="1:11">
+    <row r="4" ht="41.4" spans="1:11">
       <c r="A4" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>21</v>
@@ -1483,29 +1495,29 @@
         <v>22</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="H4" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
     </row>
     <row r="5" ht="27.6" spans="1:11">
       <c r="A5" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>21</v>
@@ -1514,29 +1526,29 @@
         <v>22</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="H5" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
     </row>
-    <row r="6" ht="27.6" spans="1:11">
+    <row r="6" ht="41.4" spans="1:11">
       <c r="A6" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>21</v>
@@ -1545,29 +1557,29 @@
         <v>22</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="H6" s="6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
     </row>
-    <row r="7" ht="27.6" spans="1:11">
+    <row r="7" ht="41.4" spans="1:11">
       <c r="A7" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>21</v>
@@ -1576,63 +1588,191 @@
         <v>22</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="H7" s="6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
     </row>
     <row r="8" ht="27.6" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="F8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="H8" s="6" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
     </row>
+    <row r="9" ht="41.4" spans="1:11">
+      <c r="A9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" ht="27.6" spans="1:11">
+      <c r="A10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" ht="41.4" spans="1:11">
+      <c r="A11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" ht="41.4" spans="1:11">
+      <c r="A12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="http://laravel-shop.ptdmeta.cn/api/v1/search/goods" tooltip="http://laravel-shop.ptdmeta.cn/api/v1/search/goods"/>
-    <hyperlink ref="D3" r:id="rId2" display="http://laravel-shop.ptdmeta.cn/api/v1/category" tooltip="http://laravel-shop.ptdmeta.cn/api/v1/category"/>
-    <hyperlink ref="D4" r:id="rId2" display="http://laravel-shop.ptdmeta.cn/api/v1/category" tooltip="http://laravel-shop.ptdmeta.cn/api/v1/category"/>
-    <hyperlink ref="D5" r:id="rId2" display="http://laravel-shop.ptdmeta.cn/api/v1/category" tooltip="http://laravel-shop.ptdmeta.cn/api/v1/category"/>
-    <hyperlink ref="D6" r:id="rId2" display="http://laravel-shop.ptdmeta.cn/api/v1/category" tooltip="http://laravel-shop.ptdmeta.cn/api/v1/category"/>
-    <hyperlink ref="D7" r:id="rId2" display="http://laravel-shop.ptdmeta.cn/api/v1/category" tooltip="http://laravel-shop.ptdmeta.cn/api/v1/category"/>
-    <hyperlink ref="D8" r:id="rId2" display="http://laravel-shop.ptdmeta.cn/api/v1/category" tooltip="http://laravel-shop.ptdmeta.cn/api/v1/category"/>
+    <hyperlink ref="D2" r:id="rId1" display="https://laravel-shop.ptdmeta.cn/api/v1/search/goods" tooltip="https://laravel-shop.ptdmeta.cn/api/v1/search/goods"/>
+    <hyperlink ref="D3" r:id="rId2" display="https://laravel-shop.ptdmeta.cn/api/v1/sms-action" tooltip="https://laravel-shop.ptdmeta.cn/api/v1/sms-action"/>
+    <hyperlink ref="D4" r:id="rId2" display="https://laravel-shop.ptdmeta.cn/api/v1/sms-action" tooltip="https://laravel-shop.ptdmeta.cn/api/v1/sms-action"/>
+    <hyperlink ref="D5" r:id="rId2" display="https://laravel-shop.ptdmeta.cn/api/v1/sms-action" tooltip="https://laravel-shop.ptdmeta.cn/api/v1/sms-action"/>
+    <hyperlink ref="D6" r:id="rId2" display="https://laravel-shop.ptdmeta.cn/api/v1/sms-action" tooltip="https://laravel-shop.ptdmeta.cn/api/v1/sms-action"/>
+    <hyperlink ref="D8" r:id="rId2" display="https://laravel-shop.ptdmeta.cn/api/v1/sms-action" tooltip="https://laravel-shop.ptdmeta.cn/api/v1/sms-action"/>
+    <hyperlink ref="D7" r:id="rId2" display="https://laravel-shop.ptdmeta.cn/api/v1/sms-action" tooltip="https://laravel-shop.ptdmeta.cn/api/v1/sms-action"/>
+    <hyperlink ref="D9" r:id="rId2" display="https://laravel-shop.ptdmeta.cn/api/v1/sms-action" tooltip="https://laravel-shop.ptdmeta.cn/api/v1/sms-action"/>
+    <hyperlink ref="D10" r:id="rId2" display="https://laravel-shop.ptdmeta.cn/api/v1/sms-action" tooltip="https://laravel-shop.ptdmeta.cn/api/v1/sms-action"/>
+    <hyperlink ref="D11" r:id="rId2" display="https://laravel-shop.ptdmeta.cn/api/v1/sms-action" tooltip="https://laravel-shop.ptdmeta.cn/api/v1/sms-action"/>
+    <hyperlink ref="D12" r:id="rId2" display="https://laravel-shop.ptdmeta.cn/api/v1/sms-action" tooltip="https://laravel-shop.ptdmeta.cn/api/v1/sms-action"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
